--- a/data/pca/factorExposure/factorExposure_2013-01-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-01-16.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0007484634208715222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001806714807516907</v>
+      </c>
+      <c r="C2">
+        <v>-0.03198632266572177</v>
+      </c>
+      <c r="D2">
+        <v>0.006102932366577432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0002632956834672086</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006340390891668481</v>
+      </c>
+      <c r="C4">
+        <v>-0.08410905945607576</v>
+      </c>
+      <c r="D4">
+        <v>0.08048409108406629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0003639195619873827</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01421605688343568</v>
+      </c>
+      <c r="C6">
+        <v>-0.1129871259643034</v>
+      </c>
+      <c r="D6">
+        <v>0.0325405900419973</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.002127631414393039</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.005075441706825527</v>
+      </c>
+      <c r="C7">
+        <v>-0.05805604976615573</v>
+      </c>
+      <c r="D7">
+        <v>0.03145590076945187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0007428189749384421</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005747649568108775</v>
+      </c>
+      <c r="C8">
+        <v>-0.03779523022964176</v>
+      </c>
+      <c r="D8">
+        <v>0.04265181666450336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003209372832398345</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004492289885816364</v>
+      </c>
+      <c r="C9">
+        <v>-0.07040052277061482</v>
+      </c>
+      <c r="D9">
+        <v>0.07163544159969321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.00224428150336963</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005396305424578199</v>
+      </c>
+      <c r="C10">
+        <v>-0.05808001886094901</v>
+      </c>
+      <c r="D10">
+        <v>-0.1968302995041447</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002616237351678427</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005820711049648551</v>
+      </c>
+      <c r="C11">
+        <v>-0.08056910082130402</v>
+      </c>
+      <c r="D11">
+        <v>0.0599383012672524</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0004701208452613459</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004120304828756144</v>
+      </c>
+      <c r="C12">
+        <v>-0.0644088732165848</v>
+      </c>
+      <c r="D12">
+        <v>0.04716964991590734</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.001997574128579326</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008850216755144084</v>
+      </c>
+      <c r="C13">
+        <v>-0.06707599846187867</v>
+      </c>
+      <c r="D13">
+        <v>0.06050554324789111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.0009263002115209937</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001616271936356881</v>
+      </c>
+      <c r="C14">
+        <v>-0.04547529818092769</v>
+      </c>
+      <c r="D14">
+        <v>0.008208478652540315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0006566989817895532</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.00605312644785304</v>
+      </c>
+      <c r="C15">
+        <v>-0.04203873050498982</v>
+      </c>
+      <c r="D15">
+        <v>0.02864315890007654</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.000860261650869436</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005101420074405551</v>
+      </c>
+      <c r="C16">
+        <v>-0.0655378394407055</v>
+      </c>
+      <c r="D16">
+        <v>0.04805380890065582</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0001453247062094223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008962155853141427</v>
+      </c>
+      <c r="C20">
+        <v>-0.06553149204607656</v>
+      </c>
+      <c r="D20">
+        <v>0.04167836162581259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005648247746745615</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.01000869993038679</v>
+      </c>
+      <c r="C21">
+        <v>-0.02124129697420508</v>
+      </c>
+      <c r="D21">
+        <v>0.03833768471837763</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01676314195450989</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006670705450485998</v>
+      </c>
+      <c r="C22">
+        <v>-0.09390872482840697</v>
+      </c>
+      <c r="D22">
+        <v>0.1112888001831951</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01706433962987249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006487179526546803</v>
+      </c>
+      <c r="C23">
+        <v>-0.09472897121189033</v>
+      </c>
+      <c r="D23">
+        <v>0.111314521576656</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001313801654393458</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005513411485997644</v>
+      </c>
+      <c r="C24">
+        <v>-0.076664134059462</v>
+      </c>
+      <c r="D24">
+        <v>0.06115402123914321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003850031180327507</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003086836476706386</v>
+      </c>
+      <c r="C25">
+        <v>-0.07885598917769614</v>
+      </c>
+      <c r="D25">
+        <v>0.06658718044050836</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.004787827258247277</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003677289153150244</v>
+      </c>
+      <c r="C26">
+        <v>-0.04141703449736441</v>
+      </c>
+      <c r="D26">
+        <v>0.02040555580412872</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005385782559694792</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0009000016709174768</v>
+      </c>
+      <c r="C28">
+        <v>-0.1072494665841847</v>
+      </c>
+      <c r="D28">
+        <v>-0.3168077567606426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001003974625731457</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.00321441788710873</v>
+      </c>
+      <c r="C29">
+        <v>-0.04929698863037878</v>
+      </c>
+      <c r="D29">
+        <v>0.005814323338338145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003440821078221936</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009609071481632415</v>
+      </c>
+      <c r="C30">
+        <v>-0.1424745818353085</v>
+      </c>
+      <c r="D30">
+        <v>0.09368291441750404</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001190782745056465</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006282370090861363</v>
+      </c>
+      <c r="C31">
+        <v>-0.04464896615462856</v>
+      </c>
+      <c r="D31">
+        <v>0.03114906416895569</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0006770154285914941</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004153288071824513</v>
+      </c>
+      <c r="C32">
+        <v>-0.04063426916967045</v>
+      </c>
+      <c r="D32">
+        <v>0.02170889078609988</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002661363832796184</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008393696643120082</v>
+      </c>
+      <c r="C33">
+        <v>-0.08538620864852232</v>
+      </c>
+      <c r="D33">
+        <v>0.06786682720653819</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004300505081792541</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003987039238509927</v>
+      </c>
+      <c r="C34">
+        <v>-0.05788171825340611</v>
+      </c>
+      <c r="D34">
+        <v>0.05331688784714271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.001410993090395737</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004968312181186953</v>
+      </c>
+      <c r="C35">
+        <v>-0.04022071984657519</v>
+      </c>
+      <c r="D35">
+        <v>0.01885574293489574</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.00366003205552446</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001105456007132886</v>
+      </c>
+      <c r="C36">
+        <v>-0.02445267465578184</v>
+      </c>
+      <c r="D36">
+        <v>0.02160728400255375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002333026436818439</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009510393534519988</v>
+      </c>
+      <c r="C38">
+        <v>-0.03501256053691962</v>
+      </c>
+      <c r="D38">
+        <v>0.01517805871899645</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01183445192440078</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0004775610195878042</v>
+      </c>
+      <c r="C39">
+        <v>-0.1159509620557656</v>
+      </c>
+      <c r="D39">
+        <v>0.07274220193058088</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.01003275585206514</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002776523901165815</v>
+      </c>
+      <c r="C40">
+        <v>-0.09094451766713317</v>
+      </c>
+      <c r="D40">
+        <v>0.007870432598659495</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0001295257483250959</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007264726360790494</v>
+      </c>
+      <c r="C41">
+        <v>-0.03801127255900526</v>
+      </c>
+      <c r="D41">
+        <v>0.03502085206647811</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002863037548025537</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.00410553423994026</v>
+      </c>
+      <c r="C43">
+        <v>-0.05368141646743371</v>
+      </c>
+      <c r="D43">
+        <v>0.0244639673223201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004160479274710092</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003463461369377324</v>
+      </c>
+      <c r="C44">
+        <v>-0.1090549744981005</v>
+      </c>
+      <c r="D44">
+        <v>0.06719574653498019</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0009567879747730845</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.00224531830785562</v>
+      </c>
+      <c r="C46">
+        <v>-0.03365428446480273</v>
+      </c>
+      <c r="D46">
+        <v>0.03109675995422686</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>8.136841080177653e-05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.00271768662399729</v>
+      </c>
+      <c r="C47">
+        <v>-0.03707778612949201</v>
+      </c>
+      <c r="D47">
+        <v>0.02207860921903861</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003668290175843852</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006641100082573852</v>
+      </c>
+      <c r="C48">
+        <v>-0.03051249515566999</v>
+      </c>
+      <c r="D48">
+        <v>0.03155461354890288</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01193038588780123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01542814557768823</v>
+      </c>
+      <c r="C49">
+        <v>-0.1841580673860992</v>
+      </c>
+      <c r="D49">
+        <v>0.01248541460117085</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001594963323285103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003664961431398093</v>
+      </c>
+      <c r="C50">
+        <v>-0.04340810325300963</v>
+      </c>
+      <c r="D50">
+        <v>0.03485666246877688</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0007126342864142002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004472065944931988</v>
+      </c>
+      <c r="C51">
+        <v>-0.02647862158346175</v>
+      </c>
+      <c r="D51">
+        <v>0.01973837044351562</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0008865826022650437</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02102728976431594</v>
+      </c>
+      <c r="C53">
+        <v>-0.1691927639443826</v>
+      </c>
+      <c r="D53">
+        <v>0.02801776987229349</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001267005010476366</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008748468924175152</v>
+      </c>
+      <c r="C54">
+        <v>-0.0541481831004875</v>
+      </c>
+      <c r="D54">
+        <v>0.04536746189321058</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003723047107821011</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.00960440123366739</v>
+      </c>
+      <c r="C55">
+        <v>-0.1082345311463106</v>
+      </c>
+      <c r="D55">
+        <v>0.04004931733063813</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002858714209603039</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02020075804576366</v>
+      </c>
+      <c r="C56">
+        <v>-0.1738176377420555</v>
+      </c>
+      <c r="D56">
+        <v>0.02759190102680528</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007040769832022839</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.0197784287271389</v>
+      </c>
+      <c r="C58">
+        <v>-0.1119156709108286</v>
+      </c>
+      <c r="D58">
+        <v>0.04787466000784857</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006643577248336518</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009782067567564239</v>
+      </c>
+      <c r="C59">
+        <v>-0.1632663373622804</v>
+      </c>
+      <c r="D59">
+        <v>-0.3206530783209945</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003841319516583654</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.0240966885833317</v>
+      </c>
+      <c r="C60">
+        <v>-0.2218493401558506</v>
+      </c>
+      <c r="D60">
+        <v>0.03683666731167894</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01351106948108454</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001673172352980956</v>
+      </c>
+      <c r="C61">
+        <v>-0.0952208772058564</v>
+      </c>
+      <c r="D61">
+        <v>0.05668791729886816</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1638364103006429</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1449270059372925</v>
+      </c>
+      <c r="C62">
+        <v>-0.09176256909260354</v>
+      </c>
+      <c r="D62">
+        <v>0.04663017553197282</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0007730506768902368</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006332073061894968</v>
+      </c>
+      <c r="C63">
+        <v>-0.05515147621092449</v>
+      </c>
+      <c r="D63">
+        <v>0.02599359595597149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.0004730690019793829</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01541485797458657</v>
+      </c>
+      <c r="C64">
+        <v>-0.1053965075502923</v>
+      </c>
+      <c r="D64">
+        <v>0.05893432029303008</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002967999073314668</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.0180653369490417</v>
+      </c>
+      <c r="C65">
+        <v>-0.1232382253727448</v>
+      </c>
+      <c r="D65">
+        <v>0.01704530426401597</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007678774612727197</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01322703866040325</v>
+      </c>
+      <c r="C66">
+        <v>-0.160536265608034</v>
+      </c>
+      <c r="D66">
+        <v>0.1125347970139353</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003621238415721117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01570894146120919</v>
+      </c>
+      <c r="C67">
+        <v>-0.06584751696712378</v>
+      </c>
+      <c r="D67">
+        <v>0.02705518914540157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006189739621445659</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0006434298539302224</v>
+      </c>
+      <c r="C68">
+        <v>-0.08683020297488298</v>
+      </c>
+      <c r="D68">
+        <v>-0.2586064177323389</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002245644016009193</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006231975170360872</v>
+      </c>
+      <c r="C69">
+        <v>-0.05035773840400223</v>
+      </c>
+      <c r="D69">
+        <v>0.03886209476879457</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0003117153372687295</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001884200627802342</v>
+      </c>
+      <c r="C70">
+        <v>-0.002550419996964363</v>
+      </c>
+      <c r="D70">
+        <v>0.002063060414028041</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0001530338406702333</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005875045546820712</v>
+      </c>
+      <c r="C71">
+        <v>-0.09625887226815211</v>
+      </c>
+      <c r="D71">
+        <v>-0.3077812892427927</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.00379049445059151</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01620171039154175</v>
+      </c>
+      <c r="C72">
+        <v>-0.1530384726475077</v>
+      </c>
+      <c r="D72">
+        <v>0.02058969394859672</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01147063283978965</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03100524660856831</v>
+      </c>
+      <c r="C73">
+        <v>-0.2796576730203505</v>
+      </c>
+      <c r="D73">
+        <v>0.05617000018520949</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004624805790404373</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.00210197895930697</v>
+      </c>
+      <c r="C74">
+        <v>-0.1050874026016593</v>
+      </c>
+      <c r="D74">
+        <v>0.03677926634782254</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002558618248691651</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01104217313227852</v>
+      </c>
+      <c r="C75">
+        <v>-0.1245760955098756</v>
+      </c>
+      <c r="D75">
+        <v>0.02350861944777274</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009208756868745326</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02192106746470941</v>
+      </c>
+      <c r="C76">
+        <v>-0.1484137769991037</v>
+      </c>
+      <c r="D76">
+        <v>0.06099974784543462</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001332800599976404</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02368833325610794</v>
+      </c>
+      <c r="C77">
+        <v>-0.1237567333404882</v>
+      </c>
+      <c r="D77">
+        <v>0.08843091009217419</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0001994235336783459</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01482222450867574</v>
+      </c>
+      <c r="C78">
+        <v>-0.0966990256129152</v>
+      </c>
+      <c r="D78">
+        <v>0.06804296092671461</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02300235319716069</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03783101141507361</v>
+      </c>
+      <c r="C79">
+        <v>-0.1559732928022343</v>
+      </c>
+      <c r="D79">
+        <v>0.03550192915071725</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006595340925113141</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01045824482937936</v>
+      </c>
+      <c r="C80">
+        <v>-0.04027297570528308</v>
+      </c>
+      <c r="D80">
+        <v>0.02784556396399524</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001293711735662682</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01542618887685507</v>
+      </c>
+      <c r="C81">
+        <v>-0.1269719232920387</v>
+      </c>
+      <c r="D81">
+        <v>0.03965337561046227</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006092816202594077</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01995229310559478</v>
+      </c>
+      <c r="C82">
+        <v>-0.1410414334088085</v>
+      </c>
+      <c r="D82">
+        <v>0.03944963768048791</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008359736923547667</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01003723159489152</v>
+      </c>
+      <c r="C83">
+        <v>-0.05610756485712429</v>
+      </c>
+      <c r="D83">
+        <v>0.05620291571916997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01303906000567854</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01179099091467957</v>
+      </c>
+      <c r="C84">
+        <v>-0.03742730537088142</v>
+      </c>
+      <c r="D84">
+        <v>-0.0128854676665438</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01426122175213794</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.0283034900062688</v>
+      </c>
+      <c r="C85">
+        <v>-0.1236783267121497</v>
+      </c>
+      <c r="D85">
+        <v>0.04442080353741521</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001704487184050255</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.006134895710594111</v>
+      </c>
+      <c r="C86">
+        <v>-0.05155428610085996</v>
+      </c>
+      <c r="D86">
+        <v>0.02353194152760456</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004485157809396887</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01028769921079377</v>
+      </c>
+      <c r="C87">
+        <v>-0.1294554364477742</v>
+      </c>
+      <c r="D87">
+        <v>0.07093919954977436</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01170090659904655</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002838032567923091</v>
+      </c>
+      <c r="C88">
+        <v>-0.06574833779395804</v>
+      </c>
+      <c r="D88">
+        <v>0.01704050858926086</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01373041534193051</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001258360689694727</v>
+      </c>
+      <c r="C89">
+        <v>-0.146814339496548</v>
+      </c>
+      <c r="D89">
+        <v>-0.3389101148598766</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.001988493193267277</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007095255444381602</v>
+      </c>
+      <c r="C90">
+        <v>-0.1213788522128744</v>
+      </c>
+      <c r="D90">
+        <v>-0.3192267026256927</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0006754102248146574</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01052383471686078</v>
+      </c>
+      <c r="C91">
+        <v>-0.1014988435701685</v>
+      </c>
+      <c r="D91">
+        <v>0.0199917633211321</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.007638019798242227</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001028311946081182</v>
+      </c>
+      <c r="C92">
+        <v>-0.1360005460671859</v>
+      </c>
+      <c r="D92">
+        <v>-0.3276217815913385</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>8.301596431124492e-06</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004940085427443367</v>
+      </c>
+      <c r="C93">
+        <v>-0.1052545437874372</v>
+      </c>
+      <c r="D93">
+        <v>-0.3025703157742742</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003410490371776554</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02263587234918231</v>
+      </c>
+      <c r="C94">
+        <v>-0.1462921118714022</v>
+      </c>
+      <c r="D94">
+        <v>0.05425393461751453</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004489114237591445</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01662071827944964</v>
+      </c>
+      <c r="C95">
+        <v>-0.1277014359577743</v>
+      </c>
+      <c r="D95">
+        <v>0.0557704706598204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.0002322806940810347</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03644996508360259</v>
+      </c>
+      <c r="C97">
+        <v>-0.2145810645341293</v>
+      </c>
+      <c r="D97">
+        <v>-0.01109604432748204</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.002764931335790466</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03674509269102781</v>
+      </c>
+      <c r="C98">
+        <v>-0.2487345341873067</v>
+      </c>
+      <c r="D98">
+        <v>0.04925070435397979</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9847620688824551</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9820936490710822</v>
+      </c>
+      <c r="C99">
+        <v>0.1171542219444802</v>
+      </c>
+      <c r="D99">
+        <v>-0.02770832407864619</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0009022436509859556</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003251879979342042</v>
+      </c>
+      <c r="C101">
+        <v>-0.04947318119129667</v>
+      </c>
+      <c r="D101">
+        <v>0.005961457302596031</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
